--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,551 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_9</t>
+          <t>model_7_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9308326669264718</v>
+        <v>0.9567938936259895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7872225615705148</v>
+        <v>0.7828747599317909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8312314498825295</v>
+        <v>0.9186253813917655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9671417086991518</v>
+        <v>0.8680026254153006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9196599590967038</v>
+        <v>0.9303698198206425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4625222747489668</v>
+        <v>0.2889194322688345</v>
       </c>
       <c r="H2" t="n">
-        <v>1.422843710527983</v>
+        <v>1.451917480105916</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7337397136311254</v>
+        <v>0.2569902458550681</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2313549523964493</v>
+        <v>0.8260115337725646</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4825473330137874</v>
+        <v>0.5415008898138163</v>
       </c>
       <c r="L2" t="n">
-        <v>2.367765706707849</v>
+        <v>1.170313167467568</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6800899019607384</v>
+        <v>0.5375122624357834</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04048819496987</v>
+        <v>1.025291379340884</v>
       </c>
       <c r="O2" t="n">
-        <v>0.709042737067384</v>
+        <v>0.5603952722514499</v>
       </c>
       <c r="P2" t="n">
-        <v>131.54212112314</v>
+        <v>132.4832148216261</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.769049739573</v>
+        <v>211.7101434380592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_8</t>
+          <t>model_7_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9303702901660963</v>
+        <v>0.9565342036821921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7867905944882148</v>
+        <v>0.7824438911213281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.836005219304936</v>
+        <v>0.9201785101332633</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9670054401847823</v>
+        <v>0.8678277698650609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9213078105169114</v>
+        <v>0.9306148283064287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.465614190274647</v>
+        <v>0.2906559801187701</v>
       </c>
       <c r="H3" t="n">
-        <v>1.425732276396349</v>
+        <v>1.454798701825449</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7129852294188743</v>
+        <v>0.2520852896912343</v>
       </c>
       <c r="J3" t="n">
-        <v>0.232314417858803</v>
+        <v>0.8271057426664655</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4726498236388387</v>
+        <v>0.5395955046385458</v>
       </c>
       <c r="L3" t="n">
-        <v>2.376374034244547</v>
+        <v>1.173347304485305</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6823592823979513</v>
+        <v>0.5391251989276425</v>
       </c>
       <c r="N3" t="n">
-        <v>1.040758854536919</v>
+        <v>1.025443392966522</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7114087297280741</v>
+        <v>0.5620768747890063</v>
       </c>
       <c r="P3" t="n">
-        <v>131.5287958112707</v>
+        <v>132.4712298201271</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.7557244277037</v>
+        <v>211.6981584365602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_7</t>
+          <t>model_7_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298759319122643</v>
+        <v>0.9562663790296839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7863290636617088</v>
+        <v>0.7820036028623158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8407182655978196</v>
+        <v>0.9217286007456987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9668292606409103</v>
+        <v>0.8676478913754975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.922910353400367</v>
+        <v>0.9308572023571038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4689199661943328</v>
+        <v>0.2924469248033121</v>
       </c>
       <c r="H4" t="n">
-        <v>1.428818535158348</v>
+        <v>1.457742911440805</v>
       </c>
       <c r="I4" t="n">
-        <v>0.692494745647676</v>
+        <v>0.2471899282824732</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2335548965438481</v>
+        <v>0.8282313840477765</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4630244514613145</v>
+        <v>0.5377106069724722</v>
       </c>
       <c r="L4" t="n">
-        <v>2.385066853360784</v>
+        <v>1.176450790960101</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6847773113898655</v>
+        <v>0.5407836210568069</v>
       </c>
       <c r="N4" t="n">
-        <v>1.041048234978187</v>
+        <v>1.025600168372868</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7139296992201841</v>
+        <v>0.5638058993816162</v>
       </c>
       <c r="P4" t="n">
-        <v>131.5146463457422</v>
+        <v>132.4589441648776</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.7415749621753</v>
+        <v>211.6858727813107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_6</t>
+          <t>model_7_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9293484283697845</v>
+        <v>0.955990204024137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7858370598929578</v>
+        <v>0.7815536335443286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8453676293423213</v>
+        <v>0.9232756313992936</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9666114386905472</v>
+        <v>0.8674619256032406</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9244653473754114</v>
+        <v>0.9310964909642009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4724473848118254</v>
+        <v>0.2942937083370731</v>
       </c>
       <c r="H5" t="n">
-        <v>1.432108566625455</v>
+        <v>1.460751858342104</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6722811287144079</v>
+        <v>0.2423042305696924</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2350885790623872</v>
+        <v>0.8293951183512381</v>
       </c>
       <c r="K5" t="n">
-        <v>0.453684672851874</v>
+        <v>0.5358497042241006</v>
       </c>
       <c r="L5" t="n">
-        <v>2.393849813522838</v>
+        <v>1.179615385852957</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6873480812600159</v>
+        <v>0.5424884407405129</v>
       </c>
       <c r="N5" t="n">
-        <v>1.041357017539638</v>
+        <v>1.025761831790749</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7166099120859341</v>
+        <v>0.565583296768721</v>
       </c>
       <c r="P5" t="n">
-        <v>131.4996577862887</v>
+        <v>132.4463540047412</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.7265864027218</v>
+        <v>211.6732826211742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_5</t>
+          <t>model_7_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9287869322013531</v>
+        <v>0.9557054527140411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7853135904899359</v>
+        <v>0.7810937809204704</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8499498830162907</v>
+        <v>0.9248183070751217</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9663506484973577</v>
+        <v>0.8672702874077876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9259708808390268</v>
+        <v>0.9313326350875925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4762021122755777</v>
+        <v>0.296197841658844</v>
       </c>
       <c r="H6" t="n">
-        <v>1.435609008933818</v>
+        <v>1.46382689495527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6523592801461572</v>
+        <v>0.2374322863690764</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2369248006168918</v>
+        <v>0.8305943494742333</v>
       </c>
       <c r="K6" t="n">
-        <v>0.444641969494216</v>
+        <v>0.5340132555374618</v>
       </c>
       <c r="L6" t="n">
-        <v>2.402724676117904</v>
+        <v>1.182853928831579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6900739904355023</v>
+        <v>0.5442406100787077</v>
       </c>
       <c r="N6" t="n">
-        <v>1.041685698223598</v>
+        <v>1.025928515484464</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7194518688584308</v>
+        <v>0.5674100595831332</v>
       </c>
       <c r="P6" t="n">
-        <v>131.4838258184984</v>
+        <v>132.4334553278892</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.7107544349315</v>
+        <v>211.6603839443222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_4</t>
+          <t>model_7_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9281903098913488</v>
+        <v>0.9554119298402842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.784757796589739</v>
+        <v>0.7806238546567241</v>
       </c>
       <c r="D7" t="n">
-        <v>0.854461887981978</v>
+        <v>0.9263574675607953</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9660449136280125</v>
+        <v>0.8670725764862566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.927424681742138</v>
+        <v>0.9315656157590816</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4801917284097704</v>
+        <v>0.2981606304672043</v>
       </c>
       <c r="H7" t="n">
-        <v>1.43932560530363</v>
+        <v>1.466969294044753</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6327428455135126</v>
+        <v>0.2325714435363996</v>
       </c>
       <c r="J7" t="n">
-        <v>0.239077477257794</v>
+        <v>0.8318315824271705</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4359099880234354</v>
+        <v>0.532201408424675</v>
       </c>
       <c r="L7" t="n">
-        <v>2.411690411467818</v>
+        <v>1.186158643190649</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6929586772743166</v>
+        <v>0.5460408688616671</v>
       </c>
       <c r="N7" t="n">
-        <v>1.042034940551406</v>
+        <v>1.026100333752029</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7224593627880984</v>
+        <v>0.5692869591095325</v>
       </c>
       <c r="P7" t="n">
-        <v>131.4671396412916</v>
+        <v>132.4202458185738</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.6940682577246</v>
+        <v>211.6471744350069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_3</t>
+          <t>model_7_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9275575790841035</v>
+        <v>0.9551093722210712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7841686190087125</v>
+        <v>0.780143597811695</v>
       </c>
       <c r="D8" t="n">
-        <v>0.858900359874561</v>
+        <v>0.9278914331741538</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9656927236808112</v>
+        <v>0.8668687058662147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9288246230018313</v>
+        <v>0.9317950444910308</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4844228022312763</v>
+        <v>0.3001838346600317</v>
       </c>
       <c r="H8" t="n">
-        <v>1.443265438500868</v>
+        <v>1.470180773778842</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6134461039514327</v>
+        <v>0.2277270066978308</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2415572437107496</v>
+        <v>0.8331073614650625</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4275015043626652</v>
+        <v>0.5304171840814467</v>
       </c>
       <c r="L8" t="n">
-        <v>2.420747216634063</v>
+        <v>1.189540197351307</v>
       </c>
       <c r="M8" t="n">
-        <v>0.696004886643245</v>
+        <v>0.5478903491210917</v>
       </c>
       <c r="N8" t="n">
-        <v>1.042405319560525</v>
+        <v>1.02627744065108</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7256352555963849</v>
+        <v>0.5712151755725529</v>
       </c>
       <c r="P8" t="n">
-        <v>131.4495943905329</v>
+        <v>132.4067204196004</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.6765230069659</v>
+        <v>211.6336490360334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_2</t>
+          <t>model_7_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9268875932820093</v>
+        <v>0.9547977311750686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7835450995079556</v>
+        <v>0.7796528073582967</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8632614396636912</v>
+        <v>0.929420882387414</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9652919983193256</v>
+        <v>0.866658716263573</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9301680787471482</v>
+        <v>0.9320211095170056</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4889030003748817</v>
+        <v>0.3022677797696261</v>
       </c>
       <c r="H9" t="n">
-        <v>1.447434916273472</v>
+        <v>1.473462691800599</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5944858330160508</v>
+        <v>0.2228968331614004</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2443787476070323</v>
+        <v>0.8344214317963859</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4194322903115415</v>
+        <v>0.5286591186505404</v>
       </c>
       <c r="L9" t="n">
-        <v>2.429904304347022</v>
+        <v>1.19299007956452</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6992159897877634</v>
+        <v>0.5497888501685225</v>
       </c>
       <c r="N9" t="n">
-        <v>1.042797506371507</v>
+        <v>1.026459864678009</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7289830620496653</v>
+        <v>0.5731944997400117</v>
       </c>
       <c r="P9" t="n">
-        <v>131.4311823448508</v>
+        <v>132.3928839330079</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.6581109612839</v>
+        <v>211.6198125494409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_1</t>
+          <t>model_7_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9261792744619662</v>
+        <v>0.9544765695887028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.782886155654603</v>
+        <v>0.7791512239978131</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8675415499883938</v>
+        <v>0.9309443127297305</v>
       </c>
       <c r="E10" t="n">
-        <v>0.964841097213807</v>
+        <v>0.8664418023208564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9314528647301861</v>
+        <v>0.932243154109739</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4936395315860176</v>
+        <v>0.3044153887764672</v>
       </c>
       <c r="H10" t="n">
-        <v>1.451841276854999</v>
+        <v>1.476816782041731</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5758775856751158</v>
+        <v>0.2180856678999098</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2475535384945939</v>
+        <v>0.8357788331771612</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4117154651439435</v>
+        <v>0.5269323193770957</v>
       </c>
       <c r="L10" t="n">
-        <v>2.439154735779303</v>
+        <v>1.196521876163398</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7025948559347824</v>
+        <v>0.5517385148568724</v>
       </c>
       <c r="N10" t="n">
-        <v>1.043212132022264</v>
+        <v>1.026647861704174</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7325057735237801</v>
+        <v>0.5752271656905069</v>
       </c>
       <c r="P10" t="n">
-        <v>131.4118994425911</v>
+        <v>132.3787241996325</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.6388280590241</v>
+        <v>211.6056528160655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>model_7_5_15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9541458257133184</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7786386308429086</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9324618963296626</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.866218463099103</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9324614595938899</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3066270745940979</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.480244494828852</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2132929673119075</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8371764425894136</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5252345984518531</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.200131616872917</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.553739175599937</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.026841467875131</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5773129987033425</v>
+      </c>
+      <c r="P11" t="n">
+        <v>132.3642460210527</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>211.5911746374857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_14</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9538051639752738</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7781147617847348</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9339731832854433</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8659883199235281</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.932675708362143</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3089050812050053</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.483747609633056</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2085201522380395</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8386166296995129</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5235684258475064</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.203825234034263</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5557923004189652</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.02704087962423</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.579453529296471</v>
+      </c>
+      <c r="P12" t="n">
+        <v>132.3494424596807</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>211.5763710761137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9534543910407104</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7775793830219723</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9354772742098809</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8657510285043666</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9328856341750944</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3112507014335917</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.487327689884841</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2037700630447429</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8401015489996835</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5219358720581116</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.207603688330158</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5578984687499973</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.027246210122511</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5816493615737246</v>
+      </c>
+      <c r="P13" t="n">
+        <v>132.3343131552077</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>211.5612417716408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9530933865317668</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7770321863317011</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9369740980480815</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8655067619403078</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9330912877779732</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3136647402471705</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.490986796672294</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1990429241314065</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8416301172750933</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5203365424475108</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.211466696805426</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5600578008091401</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.027457529835063</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5839006208690588</v>
+      </c>
+      <c r="P14" t="n">
+        <v>132.3188611393948</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>211.5457897558279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_11</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.952721713871365</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.776473009168265</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9384627091895871</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8652548841769039</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9332922140689711</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3161501170386729</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.494726016938965</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1943417218427681</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8432063148193788</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5187739762573604</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.215419038096148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5622722801620873</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.027675094319201</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5862093751926651</v>
+      </c>
+      <c r="P15" t="n">
+        <v>132.3030762485555</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>211.5300048649886</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_10</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9523392222905455</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7759014770471711</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9399429510342212</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8649956659937161</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9334884759705124</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.318707840000825</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.498547854864384</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1896669507398901</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8448284471515579</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5172476841517323</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.219462208532984</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.564542150774258</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.027898991829925</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5885758788960758</v>
+      </c>
+      <c r="P16" t="n">
+        <v>132.2869609158432</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>211.5138895322762</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9519456859522365</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7753174112472793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9414138605773542</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8647286847929647</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9336797293852681</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.321339419307165</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.502453505557636</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1850216521002715</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8464991587987777</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5157603421112067</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.223604418481921</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5668680792805015</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.028129354564544</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5910008269941659</v>
+      </c>
+      <c r="P17" t="n">
+        <v>132.2705146669329</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>211.497443283366</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_8</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9515407836137721</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7747204778622527</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9428749111022313</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8644537137735464</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9338657606737799</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3240470031088798</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.506445201851934</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1804074893549748</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8482198690341695</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5143136115698975</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.227845631457172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5692512653555368</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.028366370567548</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5934854702342908</v>
+      </c>
+      <c r="P18" t="n">
+        <v>132.2537334047759</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>211.4806620212089</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.95112431644474</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7741103576481341</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9443256788230546</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8641707914953047</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9340464996465171</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3268319209858522</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.510525078533091</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1758258008674634</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8499903365584222</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5129080383786592</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.232184862772674</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5716921557847827</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.028610156227469</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5960302744224494</v>
+      </c>
+      <c r="P19" t="n">
+        <v>132.2366184866623</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>211.4635471030953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9506958756619209</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7734868302568607</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9457651757553792</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8638792636751373</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9342215029262227</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3296969064733525</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.514694609069616</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.171279706804317</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8518146557362205</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5115470705995027</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.236638378085768</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5741923949978374</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.028860950832046</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5986369539950125</v>
+      </c>
+      <c r="P20" t="n">
+        <v>132.219163023603</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>211.4460916400361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9502553307058774</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7728495595333758</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9471931004646746</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.863579602694269</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9343908559522036</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3326428326229384</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.518956041331921</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1667701591298627</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.853689870506193</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5102300437869185</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.24133989040427</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5767519680269313</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.029118830806316</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6013054933470016</v>
+      </c>
+      <c r="P21" t="n">
+        <v>132.2013718786549</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>211.428300495088</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9498022493795736</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7721981839348796</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9486085153952019</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8632708063754526</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9345540078401977</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.33567258953818</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.523311792958373</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1623001187511258</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8556222522806896</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5089612420647909</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.246156035033258</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.579372582660053</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.029384049143664</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6040376729704753</v>
+      </c>
+      <c r="P22" t="n">
+        <v>132.183238059977</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>211.4101666764101</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.949336551029771</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7715325204767376</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9500108737807312</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8629534020217099</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.93471104904185</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3387867165476534</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.527763087568068</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1578713124176772</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8576085013093993</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5077399620075932</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.251094187841903</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5820538777017583</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.029656653055744</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.606833116293152</v>
+      </c>
+      <c r="P23" t="n">
+        <v>132.1647690486585</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>211.3916976650916</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9488577247170292</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.770852074934264</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9513995555256586</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8626263921027628</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9348614470876973</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3419886303057498</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.532313230043752</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1534856984615437</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8596548599249261</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5065703445307639</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.256159061980674</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.584797939724269</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.029936941629056</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6096939987169524</v>
+      </c>
+      <c r="P24" t="n">
+        <v>132.1459555743843</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>211.3728841908174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_7_5_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9483656242195813</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7701566366091368</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9527732727650033</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8622906046093384</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9350052814537646</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3452793085980991</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.536963629326077</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1491473441059409</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8617561467371663</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5054517715641182</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.26135030877785</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.587604721388536</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.030225000456831</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6126202708875063</v>
+      </c>
+      <c r="P25" t="n">
+        <v>132.1268031987054</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>211.3537318151384</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_7_5_0</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.9254314273392804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.782190807080521</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8717374108227189</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9643378135704425</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9326764237351853</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4986403887389372</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.45649107597167</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5576356221998657</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2510971543900888</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4043663882949773</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.448506030368117</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7061447363954059</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.043649896191641</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.7362067797448778</v>
-      </c>
-      <c r="P11" t="n">
-        <v>131.3917402137669</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>210.6186688302</v>
+      <c r="B26" t="n">
+        <v>0.9478598548956106</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7694458541553028</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9541318229300775</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8619449812536828</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9351420697745809</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3486613903963445</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.541716634867718</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.144856889085688</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8639189842861015</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5043879943737196</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.266676865989381</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5904755629120857</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.030521060548911</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6156133300781746</v>
+      </c>
+      <c r="P26" t="n">
+        <v>132.1073081116927</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>211.3342367281257</v>
       </c>
     </row>
   </sheetData>
